--- a/Modeli pretnji/CompanyService.xlsx
+++ b/Modeli pretnji/CompanyService.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D2A483-B74C-4087-A3F3-C553D3DCDCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F760A4-C8FD-4BAB-AA8F-90EB669740C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="136">
   <si>
     <t>Application Version:</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>Kako je relativno lako smanjiti verovatnoću da se ovaj slučaj dogodi, nema smisla ostaviti ovu ranjivost nepokrivenom.</t>
+  </si>
+  <si>
+    <t>Repudiation</t>
   </si>
 </sst>
 </file>
@@ -959,117 +962,6 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1098,32 +990,143 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1569,10 +1572,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1583,32 +1586,32 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="44"/>
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="44"/>
     </row>
     <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="44"/>
     </row>
     <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="44"/>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="45"/>
     </row>
     <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1658,19 +1661,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="42" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="E1" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -1682,27 +1685,27 @@
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="C3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -1714,12 +1717,12 @@
       <c r="C4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -1731,12 +1734,12 @@
       <c r="C5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
@@ -1748,27 +1751,27 @@
       <c r="C6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>2</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="C7" s="51"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
@@ -1780,12 +1783,12 @@
       <c r="C8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -1797,27 +1800,27 @@
       <c r="C9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>3</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
+      <c r="C10" s="51"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
@@ -1829,12 +1832,12 @@
       <c r="C11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
@@ -1846,12 +1849,12 @@
       <c r="C12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
@@ -1863,25 +1866,25 @@
       <c r="C13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
@@ -1893,14 +1896,14 @@
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
@@ -1912,12 +1915,12 @@
       <c r="C16" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
@@ -1929,12 +1932,12 @@
       <c r="C17" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
@@ -1946,133 +1949,141 @@
       <c r="C18" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
+      <c r="C20" s="59"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>1</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
+      <c r="C21" s="56"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
     </row>
     <row r="22" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
+      <c r="C22" s="57"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
+      <c r="C23" s="57"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>2</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
+      <c r="C24" s="56"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
+      <c r="C25" s="60"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
     </row>
     <row r="26" spans="1:10" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
+      <c r="C26" s="60"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E20:J26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="E14:J14"/>
     <mergeCell ref="E15:J18"/>
     <mergeCell ref="E19:J19"/>
@@ -2084,14 +2095,6 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="E2:J13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E20:J26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2102,7 +2105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -2112,893 +2115,893 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="P2" s="45" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="P2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="55"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="66"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="58"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="69"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="58"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="69"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="58"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="69"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="58"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="69"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="58"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="69"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="58"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="69"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="58"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="69"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="58"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="69"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="58"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="69"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="58"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="69"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="58"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="69"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="58"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="69"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="58"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="69"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="58"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="69"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="58"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="69"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="58"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="69"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B39" s="56"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="58"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="69"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="55"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B40" s="56"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="58"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="69"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B41" s="56"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="58"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="69"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B42" s="56"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="58"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="69"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B43" s="56"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="58"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="69"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="61"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="72"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3021,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3034,20 +3037,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="42" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="F1" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -3062,12 +3065,12 @@
       <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
@@ -3082,12 +3085,12 @@
       <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -3096,16 +3099,16 @@
       <c r="B4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
+      <c r="D4" s="73"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
     </row>
     <row r="5" spans="1:11" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -3114,34 +3117,34 @@
       <c r="B5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-    </row>
-    <row r="6" spans="1:11" s="67" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
+      <c r="D5" s="74"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+    </row>
+    <row r="6" spans="1:11" s="30" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -3150,58 +3153,58 @@
       <c r="B7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
+      <c r="D7" s="74"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-    </row>
-    <row r="9" spans="1:11" s="67" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75" t="s">
+      <c r="D8" s="82"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+    </row>
+    <row r="9" spans="1:11" s="30" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-    </row>
-    <row r="10" spans="1:11" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="D9" s="84"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:11" s="30" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="29" t="s">
@@ -3210,74 +3213,74 @@
       <c r="D10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-    </row>
-    <row r="11" spans="1:11" s="67" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="1:11" s="30" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32">
         <v>2</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-    </row>
-    <row r="12" spans="1:11" s="67" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:11" s="30" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-    </row>
-    <row r="13" spans="1:11" s="67" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+      <c r="D12" s="73"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:11" s="30" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-    </row>
-    <row r="14" spans="1:11" s="67" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
+      <c r="D13" s="79"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:11" s="30" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -3286,68 +3289,68 @@
       <c r="D14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-    </row>
-    <row r="15" spans="1:11" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:11" s="30" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="69" t="s">
+      <c r="C15" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-    </row>
-    <row r="16" spans="1:11" s="67" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71" t="s">
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:11" s="30" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-    </row>
-    <row r="17" spans="1:11" s="67" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="D16" s="73"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="1:11" s="30" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -3362,12 +3365,12 @@
       <c r="D18" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -3382,12 +3385,12 @@
       <c r="D19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -3396,40 +3399,40 @@
       <c r="B20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
+      <c r="D20" s="80"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
+      <c r="D21" s="76"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
@@ -3438,34 +3441,34 @@
       <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="80"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
     </row>
     <row r="25" spans="1:11" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="74"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
@@ -3502,10 +3505,10 @@
       <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="62"/>
+      <c r="D28" s="73"/>
     </row>
     <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
@@ -3514,10 +3517,10 @@
       <c r="B29" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="63"/>
+      <c r="D29" s="74"/>
     </row>
     <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
@@ -3526,16 +3529,16 @@
       <c r="B30" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="63"/>
+      <c r="D30" s="74"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="29" t="s">
@@ -3546,45 +3549,62 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="62"/>
+      <c r="D33" s="73"/>
     </row>
     <row r="34" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="63"/>
+      <c r="D34" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F2:K8"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C12:D12"/>
@@ -3592,25 +3612,8 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F2:K8"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3635,15 +3638,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -3727,7 +3730,7 @@
       <c r="D5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="37" t="s">
         <v>133</v>
       </c>
       <c r="F5" s="20" t="s">
@@ -3741,22 +3744,22 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="31" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3764,22 +3767,22 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="31" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3787,22 +3790,22 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="31" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Modeli pretnji/CompanyService.xlsx
+++ b/Modeli pretnji/CompanyService.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F760A4-C8FD-4BAB-AA8F-90EB669740C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923A138D-C198-4817-BBE5-3E3612524ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="138">
   <si>
     <t>Application Version:</t>
   </si>
@@ -521,6 +521,12 @@
   </si>
   <si>
     <t>Repudiation</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Ana Gavrilović</t>
   </si>
 </sst>
 </file>
@@ -882,9 +888,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -993,6 +996,9 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1008,15 +1014,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1038,21 +1059,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1089,44 +1095,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,22 +1156,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:colOff>487679</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542070</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>173270</xdr:rowOff>
+      <xdr:rowOff>106679</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABCC662-8C0D-305E-7196-B81B92C099A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAAB988-841C-3C62-EBB2-5D249CDEB1C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1181,8 +1187,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847849" y="219075"/>
-          <a:ext cx="4815841" cy="3381290"/>
+          <a:off x="1950719" y="259080"/>
+          <a:ext cx="4321591" cy="3322319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1194,22 +1200,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>194309</xdr:colOff>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>549602</xdr:colOff>
+      <xdr:colOff>485133</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>112395</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3685E86-F2F9-55CE-DF7A-4E34E36CB92D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996DE3A3-FFCD-9F58-05D5-A488F69FD02D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,8 +1231,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1051559" y="3848100"/>
-          <a:ext cx="6441768" cy="4046220"/>
+          <a:off x="1013460" y="3886200"/>
+          <a:ext cx="6421113" cy="4069080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>111547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C1411F-E405-1ACD-CC2B-56BB735FE847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1318260" y="8282940"/>
+          <a:ext cx="5676900" cy="4081567"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1561,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1578,10 +1628,10 @@
       <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1614,21 +1664,23 @@
       <c r="B8" s="45"/>
     </row>
     <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="40" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1"/>
@@ -1654,249 +1706,249 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="64.33203125" customWidth="1"/>
     <col min="5" max="10" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="E1" s="54" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="E1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="48"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="C3" s="58"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>2</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>3</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="53" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="48"/>
@@ -1906,13 +1958,13 @@
       <c r="J15" s="48"/>
     </row>
     <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>1</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="48"/>
@@ -1923,13 +1975,13 @@
       <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="48"/>
@@ -1940,13 +1992,13 @@
       <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>3</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="48"/>
@@ -1957,26 +2009,26 @@
       <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="59"/>
+      <c r="C20" s="50"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
@@ -1985,13 +2037,13 @@
       <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>1</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="46"/>
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
@@ -2000,13 +2052,13 @@
       <c r="J21" s="48"/>
     </row>
     <row r="22" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="57"/>
+      <c r="C22" s="47"/>
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
@@ -2015,13 +2067,13 @@
       <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="57"/>
+      <c r="C23" s="47"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
@@ -2030,13 +2082,13 @@
       <c r="J23" s="48"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>2</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="56"/>
+      <c r="C24" s="46"/>
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
@@ -2045,13 +2097,13 @@
       <c r="J24" s="48"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="51"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
@@ -2060,13 +2112,13 @@
       <c r="J25" s="48"/>
     </row>
     <row r="26" spans="1:10" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="60"/>
+      <c r="C26" s="51"/>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
@@ -2076,14 +2128,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E20:J26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="E14:J14"/>
     <mergeCell ref="E15:J18"/>
     <mergeCell ref="E19:J19"/>
@@ -2095,6 +2139,14 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="E2:J13"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E20:J26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2103,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:T44"/>
+  <dimension ref="B1:T68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="R64" sqref="R64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2130,14 +2182,14 @@
       <c r="L1" s="62"/>
       <c r="M1" s="62"/>
       <c r="N1" s="62"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="54" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="63"/>
@@ -2153,7 +2205,7 @@
       <c r="L2" s="63"/>
       <c r="M2" s="63"/>
       <c r="N2" s="63"/>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="53" t="s">
         <v>81</v>
       </c>
       <c r="Q2" s="61"/>
@@ -2537,11 +2589,11 @@
       <c r="L21" s="62"/>
       <c r="M21" s="62"/>
       <c r="N21" s="62"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="64"/>
@@ -2558,10 +2610,10 @@
       <c r="M22" s="65"/>
       <c r="N22" s="66"/>
       <c r="P22" s="48"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="67"/>
@@ -2577,11 +2629,11 @@
       <c r="L23" s="68"/>
       <c r="M23" s="68"/>
       <c r="N23" s="69"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="67"/>
@@ -2597,11 +2649,11 @@
       <c r="L24" s="68"/>
       <c r="M24" s="68"/>
       <c r="N24" s="69"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="67"/>
@@ -2617,11 +2669,11 @@
       <c r="L25" s="68"/>
       <c r="M25" s="68"/>
       <c r="N25" s="69"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="67"/>
@@ -2637,11 +2689,11 @@
       <c r="L26" s="68"/>
       <c r="M26" s="68"/>
       <c r="N26" s="69"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="67"/>
@@ -2657,11 +2709,11 @@
       <c r="L27" s="68"/>
       <c r="M27" s="68"/>
       <c r="N27" s="69"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="67"/>
@@ -2677,11 +2729,11 @@
       <c r="L28" s="68"/>
       <c r="M28" s="68"/>
       <c r="N28" s="69"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="67"/>
@@ -2697,11 +2749,11 @@
       <c r="L29" s="68"/>
       <c r="M29" s="68"/>
       <c r="N29" s="69"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="67"/>
@@ -2717,11 +2769,11 @@
       <c r="L30" s="68"/>
       <c r="M30" s="68"/>
       <c r="N30" s="69"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="67"/>
@@ -2737,11 +2789,11 @@
       <c r="L31" s="68"/>
       <c r="M31" s="68"/>
       <c r="N31" s="69"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="67"/>
@@ -2757,11 +2809,11 @@
       <c r="L32" s="68"/>
       <c r="M32" s="68"/>
       <c r="N32" s="69"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="67"/>
@@ -2777,11 +2829,11 @@
       <c r="L33" s="68"/>
       <c r="M33" s="68"/>
       <c r="N33" s="69"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="67"/>
@@ -2797,11 +2849,11 @@
       <c r="L34" s="68"/>
       <c r="M34" s="68"/>
       <c r="N34" s="69"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="67"/>
@@ -2817,11 +2869,11 @@
       <c r="L35" s="68"/>
       <c r="M35" s="68"/>
       <c r="N35" s="69"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="67"/>
@@ -2837,11 +2889,11 @@
       <c r="L36" s="68"/>
       <c r="M36" s="68"/>
       <c r="N36" s="69"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" s="67"/>
@@ -2857,11 +2909,11 @@
       <c r="L37" s="68"/>
       <c r="M37" s="68"/>
       <c r="N37" s="69"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="67"/>
@@ -2877,11 +2929,11 @@
       <c r="L38" s="68"/>
       <c r="M38" s="68"/>
       <c r="N38" s="69"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="67"/>
@@ -2897,11 +2949,11 @@
       <c r="L39" s="68"/>
       <c r="M39" s="68"/>
       <c r="N39" s="69"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="55"/>
-      <c r="T39" s="55"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="67"/>
@@ -2917,11 +2969,11 @@
       <c r="L40" s="68"/>
       <c r="M40" s="68"/>
       <c r="N40" s="69"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="67"/>
@@ -2937,11 +2989,11 @@
       <c r="L41" s="68"/>
       <c r="M41" s="68"/>
       <c r="N41" s="69"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="67"/>
@@ -2957,11 +3009,11 @@
       <c r="L42" s="68"/>
       <c r="M42" s="68"/>
       <c r="N42" s="69"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="67"/>
@@ -2977,11 +3029,11 @@
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
       <c r="N43" s="69"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="55"/>
-      <c r="T43" s="55"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="70"/>
@@ -2997,14 +3049,378 @@
       <c r="L44" s="71"/>
       <c r="M44" s="71"/>
       <c r="N44" s="72"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="55"/>
-      <c r="T44" s="55"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B45" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="66"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B47" s="67"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="69"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B48" s="67"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="69"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="67"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="69"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="67"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="69"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="67"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="69"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="67"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="69"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="67"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="69"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="67"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="69"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="67"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="69"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="67"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="69"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="67"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="69"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="67"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="69"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="67"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="69"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="67"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="69"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="67"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="69"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B62" s="67"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="69"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B63" s="67"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="69"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B64" s="67"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="69"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="67"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="69"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" s="67"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="69"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="67"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="68"/>
+      <c r="J67" s="68"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="68"/>
+      <c r="N67" s="69"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" s="70"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
+      <c r="N68" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B46:N68"/>
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="P2:T20"/>
     <mergeCell ref="P21:T21"/>
@@ -3024,7 +3440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3037,381 +3453,381 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="F1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
+      <c r="D4" s="79"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="74" t="s">
         <v>84</v>
       </c>
       <c r="D5" s="74"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-    </row>
-    <row r="6" spans="1:11" s="30" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+    </row>
+    <row r="6" spans="1:11" s="29" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="D6" s="82"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="74" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="74"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-    </row>
-    <row r="9" spans="1:11" s="30" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="D8" s="80"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+    </row>
+    <row r="9" spans="1:11" s="29" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="1:11" s="30" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="D9" s="82"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" spans="1:11" s="30" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" s="29" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
         <v>2</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="1:11" s="30" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" s="29" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="1:11" s="30" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="D12" s="79"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" s="29" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-    </row>
-    <row r="14" spans="1:11" s="30" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="D13" s="85"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" s="29" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="1:11" s="30" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="1:11" s="30" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="1:11" s="30" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="D16" s="79"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" s="29" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="74" t="s">
         <v>103</v>
       </c>
       <c r="D17" s="74"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
+      <c r="D20" s="83"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="73" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="74" t="s">
@@ -3421,27 +3837,27 @@
         <v>101</v>
       </c>
       <c r="D21" s="76"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="22" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="74"/>
       <c r="C22" s="77"/>
       <c r="D22" s="78"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="73" t="s">
         <v>113</v>
       </c>
       <c r="B23" s="74" t="s">
@@ -3453,16 +3869,16 @@
       <c r="D23" s="76"/>
     </row>
     <row r="24" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="74"/>
       <c r="C24" s="77"/>
       <c r="D24" s="78"/>
     </row>
     <row r="25" spans="1:11" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>106</v>
       </c>
       <c r="C25" s="74" t="s">
@@ -3471,50 +3887,50 @@
       <c r="D25" s="74"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="73"/>
+      <c r="D28" s="79"/>
     </row>
     <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="74" t="s">
@@ -3523,10 +3939,10 @@
       <c r="D29" s="74"/>
     </row>
     <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="74" t="s">
@@ -3535,50 +3951,50 @@
       <c r="D30" s="74"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="73"/>
+      <c r="D33" s="79"/>
     </row>
     <row r="34" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="32" t="s">
         <v>122</v>
       </c>
       <c r="C34" s="74" t="s">
@@ -3588,23 +4004,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F2:K8"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C12:D12"/>
@@ -3614,6 +4013,23 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F2:K8"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3638,311 +4054,311 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
